--- a/outcome/simulate data/A_Dengue fever.xlsx
+++ b/outcome/simulate data/A_Dengue fever.xlsx
@@ -409,7 +409,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>703.8248001295</v>
+        <v>-121.919295487163</v>
       </c>
       <c r="C2" t="n">
         <v>-2885.83278825383</v>
@@ -435,19 +435,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2279.43189279344</v>
+        <v>-1585.0637300186</v>
       </c>
       <c r="C3" t="n">
-        <v>-4192.03218766279</v>
+        <v>-8712.03300956264</v>
       </c>
       <c r="D3" t="n">
-        <v>-6553.10999035752</v>
+        <v>-9179.9993181329</v>
       </c>
       <c r="E3" t="n">
-        <v>8967.39565317844</v>
+        <v>4728.33209132992</v>
       </c>
       <c r="F3" t="n">
-        <v>9613.84981513043</v>
+        <v>7089.40989402465</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -461,19 +461,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>4869.35009792399</v>
+        <v>-2680.71481698273</v>
       </c>
       <c r="C4" t="n">
-        <v>-5194.34419554961</v>
+        <v>-13164.8427384833</v>
       </c>
       <c r="D4" t="n">
-        <v>-8086.01392457835</v>
+        <v>-13558.2867818766</v>
       </c>
       <c r="E4" t="n">
-        <v>18758.9167134555</v>
+        <v>5730.64409921674</v>
       </c>
       <c r="F4" t="n">
-        <v>19064.3853207191</v>
+        <v>8622.31382824548</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -487,7 +487,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>4275.74275789888</v>
+        <v>268.873324044664</v>
       </c>
       <c r="C5" t="n">
         <v>-6039.34241065951</v>
@@ -496,10 +496,10 @@
         <v>-9378.32717450385</v>
       </c>
       <c r="E5" t="n">
-        <v>21893.0415000442</v>
+        <v>6575.64231432664</v>
       </c>
       <c r="F5" t="n">
-        <v>23329.4470622567</v>
+        <v>9914.62707817097</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
@@ -513,7 +513,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>873.0885953485</v>
+        <v>3129.78452263809</v>
       </c>
       <c r="C6" t="n">
         <v>-6783.80562769341</v>
@@ -522,10 +522,10 @@
         <v>-10516.8854131505</v>
       </c>
       <c r="E6" t="n">
-        <v>7320.10553136054</v>
+        <v>12048.6234038243</v>
       </c>
       <c r="F6" t="n">
-        <v>11053.1853168176</v>
+        <v>12497.3137989756</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
@@ -539,7 +539,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>13.8779347426123</v>
+        <v>4754.29543147394</v>
       </c>
       <c r="C7" t="n">
         <v>-7456.8545846269</v>
@@ -548,10 +548,10 @@
         <v>-11546.2249659926</v>
       </c>
       <c r="E7" t="n">
-        <v>7993.15448829403</v>
+        <v>20022.6902622438</v>
       </c>
       <c r="F7" t="n">
-        <v>12082.5248696598</v>
+        <v>20658.2818928457</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
@@ -565,7 +565,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>38.7809121144845</v>
+        <v>3984.50110997213</v>
       </c>
       <c r="C8" t="n">
         <v>-8075.78872729441</v>
@@ -574,10 +574,10 @@
         <v>-12492.8030523102</v>
       </c>
       <c r="E8" t="n">
-        <v>9101.41382032431</v>
+        <v>18573.3186611453</v>
       </c>
       <c r="F8" t="n">
-        <v>13029.1029559773</v>
+        <v>19835.4871975754</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
@@ -591,7 +591,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>216.943561801654</v>
+        <v>782.177674924421</v>
       </c>
       <c r="C9" t="n">
         <v>-8651.87977198243</v>
@@ -617,7 +617,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>1727.10760043729</v>
+        <v>606.866759830758</v>
       </c>
       <c r="C10" t="n">
         <v>-9192.95716448607</v>
@@ -643,7 +643,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>6242.46434996978</v>
+        <v>-20.8961477481954</v>
       </c>
       <c r="C11" t="n">
         <v>-9704.72152328267</v>
@@ -652,10 +652,10 @@
         <v>-14984.0407825816</v>
       </c>
       <c r="E11" t="n">
-        <v>20543.3921008152</v>
+        <v>13305.3303437918</v>
       </c>
       <c r="F11" t="n">
-        <v>22256.6260633714</v>
+        <v>17891.6765004323</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
@@ -669,7 +669,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>5873.20907953335</v>
+        <v>-713.81822790542</v>
       </c>
       <c r="C12" t="n">
         <v>-10191.4763824052</v>
@@ -678,10 +678,10 @@
         <v>-15728.4680993042</v>
       </c>
       <c r="E12" t="n">
-        <v>22715.0250826383</v>
+        <v>10727.7762860723</v>
       </c>
       <c r="F12" t="n">
-        <v>23628.8177505785</v>
+        <v>16264.7680029713</v>
       </c>
       <c r="G12" t="s">
         <v>8</v>
@@ -695,7 +695,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>484.377351734999</v>
+        <v>1653.75807561241</v>
       </c>
       <c r="C13" t="n">
         <v>-10656.565176929</v>
@@ -704,10 +704,10 @@
         <v>-16439.760029639</v>
       </c>
       <c r="E13" t="n">
-        <v>17782.2767200986</v>
+        <v>11192.8650805961</v>
       </c>
       <c r="F13" t="n">
-        <v>21266.7320439759</v>
+        <v>16976.0599333062</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
@@ -721,7 +721,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>-28.148807038566</v>
+        <v>5159.24519626454</v>
       </c>
       <c r="C14" t="n">
         <v>-11102.6467765108</v>
@@ -730,10 +730,10 @@
         <v>-17121.9829638171</v>
       </c>
       <c r="E14" t="n">
-        <v>19062.6591861328</v>
+        <v>19674.1747547976</v>
       </c>
       <c r="F14" t="n">
-        <v>22437.2431559017</v>
+        <v>20109.5153604733</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
@@ -747,7 +747,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>882.809872382212</v>
+        <v>6647.51310853655</v>
       </c>
       <c r="C15" t="n">
         <v>-11531.8769900865</v>
@@ -756,10 +756,10 @@
         <v>-17778.4339270894</v>
       </c>
       <c r="E15" t="n">
-        <v>20222.6547624753</v>
+        <v>25569.6586261691</v>
       </c>
       <c r="F15" t="n">
-        <v>21756.21208721</v>
+        <v>25981.199138681</v>
       </c>
       <c r="G15" t="s">
         <v>8</v>
@@ -773,7 +773,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>1918.53537717973</v>
+        <v>988.845418054575</v>
       </c>
       <c r="C16" t="n">
         <v>-11946.0325186698</v>
@@ -785,7 +785,7 @@
         <v>12482.332422337</v>
       </c>
       <c r="F16" t="n">
-        <v>18948.1300528403</v>
+        <v>21323.7637173721</v>
       </c>
       <c r="G16" t="s">
         <v>8</v>
@@ -799,7 +799,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>1804.95849883299</v>
+        <v>-211.498705496295</v>
       </c>
       <c r="C17" t="n">
         <v>-12346.5982032215</v>
@@ -825,7 +825,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>500.252375280589</v>
+        <v>-877.026076761996</v>
       </c>
       <c r="C18" t="n">
         <v>-12734.8300376988</v>
@@ -851,7 +851,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>257.030552387108</v>
+        <v>-862.241759081911</v>
       </c>
       <c r="C19" t="n">
         <v>-13111.8016998314</v>
@@ -860,10 +860,10 @@
         <v>-20194.7202573776</v>
       </c>
       <c r="E19" t="n">
-        <v>19679.9147864808</v>
+        <v>13648.1016034985</v>
       </c>
       <c r="F19" t="n">
-        <v>21602.5770733093</v>
+        <v>20731.0201610447</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
@@ -877,7 +877,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>427.099215266448</v>
+        <v>555.780478726786</v>
       </c>
       <c r="C20" t="n">
         <v>-13478.4395813417</v>
@@ -886,10 +886,10 @@
         <v>-20755.444509486</v>
       </c>
       <c r="E20" t="n">
-        <v>18158.2544260379</v>
+        <v>14014.7394850089</v>
       </c>
       <c r="F20" t="n">
-        <v>21607.9598509519</v>
+        <v>21291.7444131531</v>
       </c>
       <c r="G20" t="s">
         <v>8</v>
@@ -903,7 +903,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>1730.86670536979</v>
+        <v>4342.39408782287</v>
       </c>
       <c r="C21" t="n">
         <v>-13835.5496119801</v>
@@ -912,7 +912,7 @@
         <v>-21301.5971711401</v>
       </c>
       <c r="E21" t="n">
-        <v>14371.8495156472</v>
+        <v>17475.2927910701</v>
       </c>
       <c r="F21" t="n">
         <v>21837.8970748073</v>
@@ -929,7 +929,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>6105.76235430881</v>
+        <v>6730.08497799233</v>
       </c>
       <c r="C22" t="n">
         <v>-14183.8381113718</v>
@@ -938,10 +938,10 @@
         <v>-21834.2584649892</v>
       </c>
       <c r="E22" t="n">
-        <v>17088.4491234825</v>
+        <v>23510.5836151408</v>
       </c>
       <c r="F22" t="n">
-        <v>23734.6612790489</v>
+        <v>24237.6141306936</v>
       </c>
       <c r="G22" t="s">
         <v>8</v>
@@ -955,7 +955,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>6044.43750779125</v>
+        <v>2977.78780920731</v>
       </c>
       <c r="C23" t="n">
         <v>-14523.9282176376</v>
@@ -964,7 +964,7 @@
         <v>-22354.381398549</v>
       </c>
       <c r="E23" t="n">
-        <v>17491.9590947044</v>
+        <v>20969.4215857246</v>
       </c>
       <c r="F23" t="n">
         <v>24294.572637461</v>
@@ -981,7 +981,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3.31327623518351</v>
+        <v>198.049660463738</v>
       </c>
       <c r="C24" t="n">
         <v>-14856.3729882283</v>
@@ -1007,7 +1007,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>-419.0739356705</v>
+        <v>-630.100887272892</v>
       </c>
       <c r="C25" t="n">
         <v>-15181.6659615413</v>
@@ -1016,7 +1016,7 @@
         <v>-23360.3044717857</v>
       </c>
       <c r="E25" t="n">
-        <v>17676.1595444597</v>
+        <v>15717.9658652084</v>
       </c>
       <c r="F25" t="n">
         <v>23896.6043754528</v>
@@ -1033,7 +1033,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>1148.26646314269</v>
+        <v>-1074.65210167142</v>
       </c>
       <c r="C26" t="n">
         <v>-15500.249756123</v>
@@ -1059,7 +1059,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2437.87678937745</v>
+        <v>-1169.59739570363</v>
       </c>
       <c r="C27" t="n">
         <v>-15812.5231355281</v>
@@ -1068,7 +1068,7 @@
         <v>-24325.1172609436</v>
       </c>
       <c r="E27" t="n">
-        <v>19484.3488263124</v>
+        <v>16348.8230391952</v>
       </c>
       <c r="F27" t="n">
         <v>24861.4171646108</v>
@@ -1085,7 +1085,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>2458.1710701364</v>
+        <v>1285.31244100114</v>
       </c>
       <c r="C28" t="n">
         <v>-16118.8468607404</v>
@@ -1094,7 +1094,7 @@
         <v>-24793.5989710582</v>
       </c>
       <c r="E28" t="n">
-        <v>17917.3286923265</v>
+        <v>16655.1467644075</v>
       </c>
       <c r="F28" t="n">
         <v>25329.8988747253</v>
@@ -1111,7 +1111,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>152.37508180099</v>
+        <v>5102.57953259148</v>
       </c>
       <c r="C29" t="n">
         <v>-16419.548575166</v>
@@ -1120,7 +1120,7 @@
         <v>-25253.4825576489</v>
       </c>
       <c r="E29" t="n">
-        <v>16956.4109424949</v>
+        <v>20537.3578648851</v>
       </c>
       <c r="F29" t="n">
         <v>25789.782461316</v>
@@ -1137,7 +1137,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>128.678115518285</v>
+        <v>6244.75632227192</v>
       </c>
       <c r="C30" t="n">
         <v>-16714.9269107593</v>
@@ -1146,7 +1146,7 @@
         <v>-25705.2247388776</v>
       </c>
       <c r="E30" t="n">
-        <v>19853.1969197534</v>
+        <v>24041.2315200048</v>
       </c>
       <c r="F30" t="n">
         <v>26241.5246425448</v>
